--- a/result/reg/2022_solo_30s_ratio.xlsx
+++ b/result/reg/2022_solo_30s_ratio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,15 +477,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.362</v>
+        <v>-0.487</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.347</v>
+        <v>-0.569</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-0.335</v>
+        <v>-0.664</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.259</v>
+        <v>-0.402</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.311</v>
+        <v>-0.404</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.18</v>
+        <v>-0.373</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.249</v>
+        <v>-0.254</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.277</v>
+        <v>-0.288</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-0.26</v>
+        <v>-0.303</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.318</v>
+        <v>-0.245</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.27</v>
+        <v>-0.252</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-0.22</v>
+        <v>-0.2</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -597,42 +597,36 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>대학교</t>
+          <t>커피-음료</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.09</v>
+        <v>-0.108</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.089</v>
+        <v>-0.099</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.098</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>슈퍼마켓</t>
+          <t>쇼핑업체수</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.066</v>
+        <v>-0.106</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -640,7 +634,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.07099999999999999</v>
+        <v>-0.089</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -653,11 +647,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>분식전문점</t>
+          <t>대학교</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.023</v>
+        <v>-0.079</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -665,15 +659,21 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.043</v>
+        <v>-0.079</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.082</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.074</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.073</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -707,23 +707,23 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.171</v>
+        <v>0.101</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.144</v>
+        <v>0.102</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.141</v>
+        <v>0.129</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.269</v>
+        <v>0.305</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.182</v>
+        <v>0.256</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.187</v>
+        <v>0.274</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -769,23 +769,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.308</v>
+        <v>0.377</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.205</v>
+        <v>0.316</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -794,7 +800,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.429</v>
+        <v>0.385</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -802,7 +808,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.358</v>
+        <v>0.325</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -810,7 +816,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.298</v>
+        <v>0.275</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -825,7 +831,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.488</v>
+        <v>0.61</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -833,7 +839,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.496</v>
+        <v>0.741</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -841,7 +847,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.537</v>
+        <v>0.664</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -856,7 +862,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.054</v>
+        <v>-0.074</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -875,7 +881,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.189</v>
+        <v>-0.06</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -890,11 +896,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>양식음식점</t>
+          <t>분식전문점</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.048</v>
+        <v>-0.043</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -909,11 +915,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>중식음식점</t>
+          <t>양식음식점</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -928,11 +934,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>커피-음료</t>
+          <t>중식음식점</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.039</v>
+        <v>-0.013</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -951,7 +957,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.062</v>
+        <v>0.051</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -966,11 +972,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>쇼핑업체수</t>
+          <t>슈퍼마켓</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.061</v>
+        <v>-0.037</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -985,11 +991,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>지가변동률</t>
+          <t>종사자수</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1004,11 +1010,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>종사자수</t>
+          <t>지가변동률</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.09</v>
+        <v>0.024</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1027,7 +1033,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.036</v>
+        <v>-0.042</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1039,25 +1045,6 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>월평균소득</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
